--- a/Project Development Phase/Sprint-2/Testcases_sprint2 .xlsx
+++ b/Project Development Phase/Sprint-2/Testcases_sprint2 .xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhf8G9BIWXg1jwaObOlGzMjuesnlw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjOx5xd6ZPuA3vgaG3tlsJBLKDhmA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>PNT2022TMID53159</t>
   </si>
@@ -157,66 +157,6 @@
     <t>AYUSH , AASIF</t>
   </si>
   <si>
-    <t>Classify Image</t>
-  </si>
-  <si>
-    <t>Verify that the image is fed into the trained YOLO model and is classified.</t>
-  </si>
-  <si>
-    <t>1. Wait until the image is classified.</t>
-  </si>
-  <si>
-    <t>The image is classified correctly.</t>
-  </si>
-  <si>
-    <t>ASIF, SAMIR</t>
-  </si>
-  <si>
-    <t>Generate Report</t>
-  </si>
-  <si>
-    <t>Verify that the user gets the generated report.</t>
-  </si>
-  <si>
-    <t>1. Open the registered email.
-2. Open the report.</t>
-  </si>
-  <si>
-    <t>The report is sent properly.</t>
-  </si>
-  <si>
-    <t>AYUSH, AASIF</t>
-  </si>
-  <si>
-    <t>Download Image</t>
-  </si>
-  <si>
-    <t>Verify that the user is able to download the localised image.</t>
-  </si>
-  <si>
-    <t>1. Click the download button.
-2. View the image from the download folder.</t>
-  </si>
-  <si>
-    <t>The image is downloaded properly.</t>
-  </si>
-  <si>
-    <t>SAMIR, SUSHIL</t>
-  </si>
-  <si>
-    <t>Log out</t>
-  </si>
-  <si>
-    <t>1. Click log out button.
-2. Login page appears.</t>
-  </si>
-  <si>
-    <t>The user is able to log out successfully.</t>
-  </si>
-  <si>
-    <t>SUSHIL,AASIF</t>
-  </si>
-  <si>
     <t>Test Scenarios</t>
   </si>
   <si>
@@ -277,7 +217,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -366,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -400,15 +339,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -430,11 +360,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -442,8 +372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,6 +396,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -480,11 +412,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -492,8 +424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,6 +448,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -530,11 +464,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -542,8 +476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -566,6 +500,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -580,11 +516,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -592,8 +528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,6 +552,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -630,11 +568,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -642,8 +580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,6 +604,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -680,11 +620,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -692,8 +632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,6 +656,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -730,11 +672,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -742,8 +684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,6 +708,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -780,20 +724,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,6 +760,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -830,20 +776,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,6 +812,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -880,11 +828,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -892,8 +840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,6 +864,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -930,11 +880,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -942,8 +892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,6 +916,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -980,20 +932,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,6 +968,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1030,20 +984,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,6 +1020,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1080,20 +1036,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,6 +1072,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1130,20 +1088,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,6 +1124,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1180,20 +1140,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,6 +1176,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1230,20 +1192,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,6 +1228,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1280,11 +1244,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1292,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,6 +1280,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1330,11 +1296,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1342,8 +1308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,6 +1332,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1380,11 +1348,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1392,8 +1360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,6 +1384,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1430,11 +1400,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1442,8 +1412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,6 +1436,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1480,11 +1452,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1492,8 +1464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,6 +1488,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1530,11 +1504,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="266700"/>
+    <xdr:ext cx="200025" cy="276225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -1542,8 +1516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5253635" y="3647720"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="5250750" y="3646650"/>
+          <a:ext cx="190500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,6 +1540,8 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buSzPts val="1100"/>
+            <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
           <a:r>
@@ -1820,7 +1796,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5" t="str">
-        <f t="array" ref="L1">A1:K13+L7+L1:L1:T13</f>
+        <f t="array" ref="L1">A1:K9+L7+L1:L1:T9</f>
         <v>#REF!</v>
       </c>
       <c r="M1" s="5"/>
@@ -2108,7 +2084,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5" t="str">
         <f t="array" ref="R8">K9</f>
-        <v>#REF!</v>
+        <v>AYUSH , AASIF</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -2169,182 +2145,102 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" ht="53.25" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" ht="55.5" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" ht="54.0" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" ht="68.25" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>60</v>
-      </c>
+    <row r="10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2362,90 +2258,90 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2473,7 +2369,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2501,7 +2397,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2529,7 +2425,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2816,7 +2712,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2844,7 +2740,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2872,7 +2768,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2900,7 +2796,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -29884,118 +29780,6 @@
       <c r="X996" s="5"/>
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
-      <c r="B997" s="5"/>
-      <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
-      <c r="J997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="L997" s="5"/>
-      <c r="M997" s="5"/>
-      <c r="N997" s="5"/>
-      <c r="O997" s="5"/>
-      <c r="P997" s="5"/>
-      <c r="Q997" s="5"/>
-      <c r="R997" s="5"/>
-      <c r="S997" s="5"/>
-      <c r="T997" s="5"/>
-      <c r="U997" s="5"/>
-      <c r="V997" s="5"/>
-      <c r="W997" s="5"/>
-      <c r="X997" s="5"/>
-      <c r="Y997" s="5"/>
-      <c r="Z997" s="5"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-      <c r="R998" s="5"/>
-      <c r="S998" s="5"/>
-      <c r="T998" s="5"/>
-      <c r="U998" s="5"/>
-      <c r="V998" s="5"/>
-      <c r="W998" s="5"/>
-      <c r="X998" s="5"/>
-      <c r="Y998" s="5"/>
-      <c r="Z998" s="5"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="5"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="5"/>
-      <c r="O999" s="5"/>
-      <c r="P999" s="5"/>
-      <c r="Q999" s="5"/>
-      <c r="R999" s="5"/>
-      <c r="S999" s="5"/>
-      <c r="T999" s="5"/>
-      <c r="U999" s="5"/>
-      <c r="V999" s="5"/>
-      <c r="W999" s="5"/>
-      <c r="X999" s="5"/>
-      <c r="Y999" s="5"/>
-      <c r="Z999" s="5"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="I1000" s="5"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30031,48 +29815,48 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="B3" s="22" t="s">
-        <v>61</v>
+      <c r="B3" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>1.0</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>62</v>
+      <c r="B4" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>2.0</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>63</v>
+      <c r="B5" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>3.0</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>64</v>
+      <c r="B6" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>4.0</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>65</v>
+      <c r="B7" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>5.0</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>66</v>
+      <c r="B8" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
